--- a/data/trans_orig/Q46-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>73,98</t>
+          <t>74,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,91</t>
+          <t>61,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>68,18</t>
+          <t>68,84</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,04; 76,14</t>
+          <t>72,12; 76,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,23; 63,78</t>
+          <t>60,14; 63,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,64; 69,81</t>
+          <t>67,21; 70,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,12</t>
+          <t>79,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>67,19</t>
+          <t>66,53</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,72</t>
+          <t>72,4</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,58; 80,83</t>
+          <t>77,94; 81,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,43; 73,01</t>
+          <t>64,28; 70,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,49; 75,16</t>
+          <t>69,84; 74,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,86</t>
+          <t>82,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>108,67</t>
+          <t>145,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,87</t>
+          <t>115,33</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,73; 83,27</t>
+          <t>80,89; 83,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,65; 260,54</t>
+          <t>67,63; 385,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,54; 173,03</t>
+          <t>74,68; 248,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,68</t>
+          <t>88,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,38</t>
+          <t>69,41</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>76,98</t>
+          <t>80,02</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,05; 88,17</t>
+          <t>83,11; 94,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,31; 71,13</t>
+          <t>68,4; 71,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,77; 80,42</t>
+          <t>76,01; 88,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>83,09</t>
+          <t>83,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>69,67</t>
+          <t>69,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>76,39</t>
+          <t>76,45</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,99; 84,31</t>
+          <t>82,0; 84,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,92; 70,54</t>
+          <t>68,9; 70,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,55; 77,21</t>
+          <t>75,61; 77,29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>76,73</t>
+          <t>76,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,02</t>
+          <t>79,82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>79,63</t>
+          <t>80,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78,48</t>
+          <t>80,27</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,11</t>
+          <t>70,66</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,14</t>
+          <t>73,39</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,63</t>
+          <t>70,52</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>71,11</t>
+          <t>74,54</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>72,94</t>
+          <t>73,53</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>75,14</t>
+          <t>76,41</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>74,52</t>
+          <t>75,37</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>74,14</t>
+          <t>76,7</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,83; 77,61</t>
+          <t>75,8; 78,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,17</t>
+          <t>78,47; 81,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,59; 80,64</t>
+          <t>79,54; 82,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,67; 79,23</t>
+          <t>79,28; 81,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,23; 71,01</t>
+          <t>69,52; 71,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,21; 73,12</t>
+          <t>72,15; 74,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,66; 71,6</t>
+          <t>69,3; 71,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,47; 74,64</t>
+          <t>70,19; 78,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,23; 73,6</t>
+          <t>72,72; 74,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,43; 75,85</t>
+          <t>75,47; 77,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,79; 75,29</t>
+          <t>74,35; 76,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,38; 75,99</t>
+          <t>74,87; 79,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>77,98</t>
+          <t>76,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>79,88</t>
+          <t>78,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,96</t>
+          <t>77,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,76</t>
+          <t>76,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>65,52</t>
+          <t>69,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,0</t>
+          <t>70,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>67,65</t>
+          <t>70,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>75,29</t>
+          <t>68,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>71,66</t>
+          <t>72,23</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>73,86</t>
+          <t>73,76</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>73,7</t>
+          <t>73,55</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>77,87</t>
+          <t>71,87</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>75,04; 77,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>76,54; 79,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76,54; 79,39</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>75,28; 77,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68,17; 71,04</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>69,72; 72,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69,29; 72,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68,13; 69,63</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>71,21; 73,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>72,76; 74,78</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>72,45; 74,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71,27; 72,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>77,98</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79,88</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>79,96</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>81,88</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65,52</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68,0</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>67,65</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81,67</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71,66</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>73,86</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>73,7</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>81,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>77,55; 78,4</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>79,43; 80,33</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>79,44; 80,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>80,17; 81,84</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>80,28; 86,32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>65,13; 65,98</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>67,59; 68,47</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>67,21; 68,11</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>68,43; 104,59</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>68,36; 134,05</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>71,35; 72,0</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>73,5; 74,19</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>73,31; 74,06</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>74,25; 90,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>74,68; 105,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q46-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,34; 74,14</t>
+          <t>72,24; 74,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,51; 74,77</t>
+          <t>72,52; 74,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,53; 74,07</t>
+          <t>71,44; 73,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,12; 76,47</t>
+          <t>72,23; 76,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,23; 60,04</t>
+          <t>58,28; 60,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,52; 61,54</t>
+          <t>59,46; 61,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,47; 61,56</t>
+          <t>59,39; 61,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,14; 63,73</t>
+          <t>60,21; 63,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,44; 67,04</t>
+          <t>65,52; 67,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,35; 68,12</t>
+          <t>66,28; 68,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,8; 67,7</t>
+          <t>65,82; 67,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,21; 70,67</t>
+          <t>67,33; 70,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,8; 78,42</t>
+          <t>76,79; 78,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,77; 80,72</t>
+          <t>78,8; 80,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,26; 79,59</t>
+          <t>77,24; 79,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,94; 81,24</t>
+          <t>77,92; 81,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,19; 64,01</t>
+          <t>62,24; 64,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,77; 66,89</t>
+          <t>64,75; 66,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,74; 66,75</t>
+          <t>64,86; 66,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,28; 70,25</t>
+          <t>64,22; 70,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,2; 71,65</t>
+          <t>70,18; 71,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,38; 74,07</t>
+          <t>72,43; 74,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,41; 73,12</t>
+          <t>71,36; 73,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,84; 74,4</t>
+          <t>69,58; 74,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,26; 81,25</t>
+          <t>79,41; 81,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,92; 83,88</t>
+          <t>81,9; 83,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,4; 82,63</t>
+          <t>80,33; 82,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,89; 83,45</t>
+          <t>80,79; 83,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 65,99</t>
+          <t>64,1; 66,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,43; 68,28</t>
+          <t>66,43; 68,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,01; 68,13</t>
+          <t>66,1; 68,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,63; 385,44</t>
+          <t>67,51; 396,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,56; 73,13</t>
+          <t>71,6; 73,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,12; 75,74</t>
+          <t>74,11; 75,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,57; 75,23</t>
+          <t>73,54; 75,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,68; 248,83</t>
+          <t>74,65; 219,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,43; 81,53</t>
+          <t>79,42; 81,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,09; 83,3</t>
+          <t>81,05; 83,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,05; 84,37</t>
+          <t>82,04; 84,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,11; 94,24</t>
+          <t>83,13; 95,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,74; 67,74</t>
+          <t>65,75; 67,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,85; 69,85</t>
+          <t>67,77; 69,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,9; 70,18</t>
+          <t>67,92; 70,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,4; 71,2</t>
+          <t>68,4; 71,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,76; 74,54</t>
+          <t>72,84; 74,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,6; 76,29</t>
+          <t>74,62; 76,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>75,17; 76,98</t>
+          <t>75,26; 77,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,01; 88,88</t>
+          <t>75,96; 88,81</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,4</t>
+          <t>78,13; 80,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,68; 81,2</t>
+          <t>78,6; 81,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,1; 83,74</t>
+          <t>81,02; 83,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,0; 84,31</t>
+          <t>82,02; 84,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,66; 69,75</t>
+          <t>67,71; 69,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,3; 73,04</t>
+          <t>70,31; 72,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,98; 71,35</t>
+          <t>68,87; 71,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,9; 70,52</t>
+          <t>68,83; 70,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,04; 74,74</t>
+          <t>73,1; 74,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,77; 76,64</t>
+          <t>74,75; 76,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75,13; 76,97</t>
+          <t>75,12; 77,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,61; 77,29</t>
+          <t>75,73; 77,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,8; 78,04</t>
+          <t>75,79; 78,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 81,25</t>
+          <t>78,46; 81,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,54; 82,24</t>
+          <t>79,42; 82,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,28; 81,45</t>
+          <t>79,22; 81,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,52; 71,78</t>
+          <t>69,49; 71,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,15; 74,9</t>
+          <t>72,07; 74,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,3; 71,8</t>
+          <t>69,14; 71,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,19; 78,95</t>
+          <t>70,17; 79,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,72; 74,34</t>
+          <t>72,71; 74,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>75,47; 77,44</t>
+          <t>75,45; 77,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>74,35; 76,47</t>
+          <t>74,35; 76,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>74,87; 79,52</t>
+          <t>74,87; 79,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,04; 77,94</t>
+          <t>75,06; 77,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,54; 79,6</t>
+          <t>76,67; 79,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,54; 79,39</t>
+          <t>76,49; 79,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,28; 77,21</t>
+          <t>75,31; 77,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,17; 71,04</t>
+          <t>68,15; 70,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,72; 72,21</t>
+          <t>69,59; 72,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,29; 72,12</t>
+          <t>69,39; 72,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,13; 69,63</t>
+          <t>68,14; 69,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,21; 73,31</t>
+          <t>71,13; 73,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72,76; 74,78</t>
+          <t>72,76; 74,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>72,45; 74,7</t>
+          <t>72,52; 74,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,27; 72,59</t>
+          <t>71,29; 72,53</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,56; 78,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,45; 80,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,51; 80,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,32</t>
+          <t>80,32; 86,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,1; 65,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,55; 68,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,23; 68,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68,36; 134,05</t>
+          <t>68,34; 129,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,33; 71,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,52; 74,22</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,33; 74,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,68; 105,05</t>
+          <t>74,57; 105,93</t>
         </is>
       </c>
     </row>
